--- a/NtierMvc/App_Data/Documents/Excel/POWorkAuth.xlsx
+++ b/NtierMvc/App_Data/Documents/Excel/POWorkAuth.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepak\Downloads\C#\NtierMvc\App_Data\Documents\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE01A63-AE97-4E82-BA24-0FDFB4FD41B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19800" windowHeight="7665"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POREPORT" sheetId="1" r:id="rId1"/>
@@ -23,9 +29,6 @@
   </si>
   <si>
     <t xml:space="preserve">                                                   </t>
-  </si>
-  <si>
-    <t>MACKERAL OIL TOOLS PRIVATE LIMITED</t>
   </si>
   <si>
     <t>Master List of Purchase Order &amp; Work Authorization</t>
@@ -82,13 +85,16 @@
   <si>
     <t>Signature     :</t>
   </si>
+  <si>
+    <t>SledgeHammer Oil Tools Pvt. Ltd.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -524,7 +530,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -564,6 +570,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -573,46 +582,60 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>37706</xdr:colOff>
+      <xdr:colOff>23813</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>35717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>773906</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>428624</xdr:rowOff>
+      <xdr:rowOff>428623</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="NEW MOT LOGO 11"/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC8D0956-05FA-4F52-87A4-3A1F8212A39A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect r="85490"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="37465" y="408940"/>
-          <a:ext cx="735965" cy="809625"/>
+          <a:off x="23813" y="345280"/>
+          <a:ext cx="2214563" cy="869156"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -663,7 +686,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -696,9 +719,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -731,6 +771,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -906,14 +963,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1833,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1849,7 +1906,7 @@
     <row r="3" spans="1:13" s="1" customFormat="1" ht="37.5" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -1864,7 +1921,7 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="37.5" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1880,40 +1937,40 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="51.75" customHeight="1">
       <c r="A5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="I5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="J5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="K5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="L5" s="30" t="s">
         <v>15</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="38" customFormat="1" ht="34.5" customHeight="1">
@@ -1947,7 +2004,7 @@
     </row>
     <row r="8" spans="1:13" ht="34.5" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
@@ -1955,7 +2012,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
       <c r="G8" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
@@ -1965,7 +2022,7 @@
     </row>
     <row r="9" spans="1:13" ht="34.5" customHeight="1">
       <c r="A9" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
@@ -1973,7 +2030,7 @@
       <c r="E9" s="19"/>
       <c r="F9" s="20"/>
       <c r="G9" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -1983,7 +2040,7 @@
     </row>
     <row r="10" spans="1:13" ht="43.5" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -1991,7 +2048,7 @@
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
       <c r="G10" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
